--- a/bancodedados/gabarito_teste5[Ciências da Natureza].xlsx
+++ b/bancodedados/gabarito_teste5[Ciências da Natureza].xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t xml:space="preserve"> D</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -466,7 +466,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t xml:space="preserve"> A</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -481,7 +481,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t xml:space="preserve"> B</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -496,7 +496,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D</t>
+          <t xml:space="preserve"> D</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -511,7 +511,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>D</t>
+          <t xml:space="preserve"> D</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -526,7 +526,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t xml:space="preserve"> C</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t xml:space="preserve"> C</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -556,7 +556,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>B</t>
+          <t xml:space="preserve"> C</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -571,7 +571,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t xml:space="preserve"> C</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>D</t>
+          <t xml:space="preserve"> D</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>C</t>
+          <t xml:space="preserve"> C</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>D</t>
+          <t xml:space="preserve"> D</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>C</t>
+          <t xml:space="preserve"> C</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>D</t>
+          <t xml:space="preserve"> D</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -661,7 +661,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>D</t>
+          <t xml:space="preserve"> D</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>E</t>
+          <t xml:space="preserve"> E</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>D</t>
+          <t xml:space="preserve"> D</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -706,7 +706,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>E</t>
+          <t xml:space="preserve"> E</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -721,7 +721,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>C</t>
+          <t xml:space="preserve"> C</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -736,7 +736,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>B</t>
+          <t xml:space="preserve"> B</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
